--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Element</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Natural gas consumption [MMcf/yr]</t>
-  </si>
-  <si>
-    <t>Productivity [MMGGE/yr]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,9 +469,8 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,331 +498,298 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.02926873171829296</v>
+        <v>-0.05520770883083531</v>
       </c>
       <c r="E4">
-        <v>-0.07240531013275332</v>
+        <v>-0.02439321757287029</v>
       </c>
       <c r="F4">
-        <v>0.009748743718592965</v>
+        <v>0.06722705290821164</v>
       </c>
       <c r="G4">
-        <v>-0.07269181729543239</v>
+        <v>-0.02672122688490754</v>
       </c>
       <c r="H4">
-        <v>-0.07327533188329709</v>
+        <v>-0.01752602210408842</v>
       </c>
       <c r="I4">
-        <v>-0.08274506862671568</v>
+        <v>-0.02424720098880395</v>
       </c>
       <c r="J4">
-        <v>-0.07455936398409961</v>
-      </c>
-      <c r="K4">
-        <v>0.09086477161929049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>-0.000461377845511382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.02861921548038701</v>
+        <v>-0.03586075144300577</v>
       </c>
       <c r="E5">
-        <v>0.1348203705092627</v>
+        <v>0.000514754059016236</v>
       </c>
       <c r="F5">
-        <v>-0.07921848046201156</v>
+        <v>-0.01840260161040644</v>
       </c>
       <c r="G5">
-        <v>0.1341708542713568</v>
+        <v>0.001933351733406934</v>
       </c>
       <c r="H5">
-        <v>0.124945623640591</v>
+        <v>-0.03209043236172945</v>
       </c>
       <c r="I5">
-        <v>0.08618915472886823</v>
+        <v>0.0001651206604826419</v>
       </c>
       <c r="J5">
-        <v>0.1357848946223656</v>
-      </c>
-      <c r="K5">
-        <v>-0.09054676366909174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.03097596390385562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>-0.005779644491112279</v>
+        <v>0.03283097932391729</v>
       </c>
       <c r="E6">
-        <v>-0.06421660541513539</v>
+        <v>-0.02496384385537542</v>
       </c>
       <c r="F6">
-        <v>0.09443486087152179</v>
+        <v>0.01906058824235297</v>
       </c>
       <c r="G6">
-        <v>-0.06581264531613291</v>
+        <v>-0.02485574742298969</v>
       </c>
       <c r="H6">
-        <v>-0.04639915997899948</v>
+        <v>-0.0587563630254521</v>
       </c>
       <c r="I6">
-        <v>-0.07033225830645767</v>
+        <v>-0.02494521978087913</v>
       </c>
       <c r="J6">
-        <v>-0.06317257931448288</v>
-      </c>
-      <c r="K6">
-        <v>0.06447761194029851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.02637956151824607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.04636645746582986</v>
+      </c>
+      <c r="E7">
+        <v>0.8674642698570794</v>
+      </c>
+      <c r="F7">
+        <v>-0.4324191376765507</v>
+      </c>
+      <c r="G7">
+        <v>0.8642450889803558</v>
+      </c>
+      <c r="H7">
+        <v>0.9999676478705914</v>
+      </c>
+      <c r="I7">
+        <v>0.8722964491857966</v>
+      </c>
+      <c r="J7">
+        <v>-0.8934053016212066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>0.07715592889822248</v>
-      </c>
-      <c r="E7">
-        <v>0.8570059251481289</v>
-      </c>
-      <c r="F7">
-        <v>-0.3097307432685817</v>
-      </c>
-      <c r="G7">
-        <v>0.8510792769819246</v>
-      </c>
-      <c r="H7">
-        <v>0.8490167254181356</v>
-      </c>
-      <c r="I7">
-        <v>0.9999699992499814</v>
-      </c>
-      <c r="J7">
-        <v>0.8632430810770271</v>
-      </c>
-      <c r="K7">
-        <v>-0.8918322958073953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="C8">
+        <v>0.9741897207588831</v>
+      </c>
+      <c r="E8">
+        <v>0.01016788067152269</v>
+      </c>
+      <c r="F8">
+        <v>0.04834464137856551</v>
+      </c>
+      <c r="G8">
+        <v>0.009958311833247331</v>
+      </c>
+      <c r="H8">
+        <v>-0.005547094188376753</v>
+      </c>
+      <c r="I8">
+        <v>0.009724550898203592</v>
+      </c>
+      <c r="J8">
+        <v>0.01942673370693483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.00377876711506846</v>
+      </c>
+      <c r="E9">
+        <v>0.02094507578030312</v>
+      </c>
+      <c r="F9">
+        <v>-0.06478403513614055</v>
+      </c>
+      <c r="G9">
+        <v>0.02130939723758895</v>
+      </c>
+      <c r="H9">
+        <v>0.00522942891771567</v>
+      </c>
+      <c r="I9">
+        <v>0.02101045204180817</v>
+      </c>
+      <c r="J9">
+        <v>0.006689498757995032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>0.9765244131103278</v>
-      </c>
-      <c r="E8">
-        <v>0.04311407785194631</v>
-      </c>
-      <c r="F8">
-        <v>-0.1097937448436211</v>
-      </c>
-      <c r="G8">
-        <v>0.04215105377634442</v>
-      </c>
-      <c r="H8">
-        <v>0.008308707717692944</v>
-      </c>
-      <c r="I8">
-        <v>0.04268356708917724</v>
-      </c>
-      <c r="J8">
-        <v>0.04300307507687693</v>
-      </c>
-      <c r="K8">
-        <v>-0.0109052726318158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>-0.01196429910747769</v>
-      </c>
-      <c r="E9">
-        <v>-0.006594164854121355</v>
-      </c>
-      <c r="F9">
-        <v>-0.07132828320708018</v>
-      </c>
-      <c r="G9">
-        <v>-0.008209705242631067</v>
-      </c>
-      <c r="H9">
-        <v>-0.02046651166279157</v>
-      </c>
-      <c r="I9">
-        <v>0.02192004800120003</v>
-      </c>
-      <c r="J9">
-        <v>-0.005701642541063528</v>
-      </c>
-      <c r="K9">
-        <v>-0.03174229355733894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="C10">
+        <v>-0.1109796119184477</v>
+      </c>
+      <c r="E10">
+        <v>-0.03011109644438578</v>
+      </c>
+      <c r="F10">
+        <v>-0.8028266353065411</v>
+      </c>
+      <c r="G10">
+        <v>-0.03006924027696111</v>
+      </c>
+      <c r="H10">
+        <v>-0.0178500234000936</v>
+      </c>
+      <c r="I10">
+        <v>-0.02989346357385429</v>
+      </c>
+      <c r="J10">
+        <v>0.03043692174768699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
-        <v>0.06832370809270233</v>
-      </c>
-      <c r="E10">
-        <v>-0.01628290707267682</v>
-      </c>
-      <c r="F10">
-        <v>-0.7784414610365261</v>
-      </c>
-      <c r="G10">
-        <v>-0.01353783844596115</v>
-      </c>
-      <c r="H10">
-        <v>-0.1937268431710793</v>
-      </c>
-      <c r="I10">
-        <v>-0.03196879921998051</v>
-      </c>
-      <c r="J10">
-        <v>-0.01775744393609841</v>
-      </c>
-      <c r="K10">
-        <v>0.06688067201680042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C11">
-        <v>-0.02274506862671567</v>
+        <v>0.01593990375961504</v>
       </c>
       <c r="E11">
-        <v>0.1040321008025201</v>
+        <v>-0.0650009000036</v>
       </c>
       <c r="F11">
-        <v>0.3015825395634891</v>
+        <v>0.3287363229452917</v>
       </c>
       <c r="G11">
-        <v>0.1053191329783245</v>
+        <v>-0.0649813159252637</v>
       </c>
       <c r="H11">
-        <v>0.1906667666691668</v>
+        <v>-0.05243636974547897</v>
       </c>
       <c r="I11">
-        <v>0.1259731493287332</v>
+        <v>-0.06519837279349118</v>
       </c>
       <c r="J11">
-        <v>0.1039225980649516</v>
-      </c>
-      <c r="K11">
-        <v>-0.09558088952223807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>0.04885574742298969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>0.04952823820595516</v>
+        <v>0.1129673958695835</v>
       </c>
       <c r="E12">
-        <v>0.4114737868446711</v>
+        <v>0.5252010128040513</v>
       </c>
       <c r="F12">
-        <v>-0.2595859896497413</v>
+        <v>-0.2382414649658599</v>
       </c>
       <c r="G12">
-        <v>0.4208760219005476</v>
+        <v>0.5302778971115885</v>
       </c>
       <c r="H12">
-        <v>0.381251031275782</v>
+        <v>0.04400456001824007</v>
       </c>
       <c r="I12">
-        <v>-0.09234530863271583</v>
+        <v>0.5173999255997023</v>
       </c>
       <c r="J12">
-        <v>0.401225530638266</v>
-      </c>
-      <c r="K12">
-        <v>0.08553063826595667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>-0.03840831363325453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.1680627015675392</v>
+        <v>-0.1838179832719331</v>
       </c>
       <c r="E13">
-        <v>0.01943898597464937</v>
+        <v>-0.02482771531086124</v>
       </c>
       <c r="F13">
-        <v>0.03745293632340809</v>
+        <v>-0.04066125064500258</v>
       </c>
       <c r="G13">
-        <v>0.01983649591239781</v>
+        <v>-0.02396572786291145</v>
       </c>
       <c r="H13">
-        <v>0.03233930848271207</v>
+        <v>-0.04029760119040476</v>
       </c>
       <c r="I13">
-        <v>0.06228305707642692</v>
+        <v>-0.02516909267637071</v>
       </c>
       <c r="J13">
-        <v>0.01811745293632341</v>
-      </c>
-      <c r="K13">
-        <v>-0.03392934823370585</v>
+        <v>0.04744022176088704</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Element</t>
   </si>
@@ -28,16 +28,16 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
-    <t>Biodiesel production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Ethanol production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Electricity production [MMWhr/yr]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption [MMcf/yr]</t>
+    <t>Biodiesel production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [cf/ton]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -49,6 +49,24 @@
     <t>Heat exchanger network error [%]</t>
   </si>
   <si>
+    <t>MFPP derivative [USD/ton]</t>
+  </si>
+  <si>
+    <t>Biodiesel production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production derivative [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption derivative [cf/ton]</t>
+  </si>
+  <si>
+    <t>TCI derivative [10^6*USD]</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -67,7 +85,10 @@
     <t>biorefinery</t>
   </si>
   <si>
-    <t>Lipid content [dry wt. %]</t>
+    <t>Cane lipid content [dry wt. %]</t>
+  </si>
+  <si>
+    <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Lipid retention [%]</t>
@@ -449,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +490,14 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,300 +525,312 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>-0.05520770883083531</v>
+        <v>0.01538629538629539</v>
       </c>
       <c r="E4">
-        <v>-0.02439321757287029</v>
-      </c>
-      <c r="F4">
-        <v>0.06722705290821164</v>
+        <v>0.03442185442185442</v>
       </c>
       <c r="G4">
-        <v>-0.02672122688490754</v>
+        <v>0.01678666078666079</v>
       </c>
       <c r="H4">
-        <v>-0.01752602210408842</v>
+        <v>-0.02492694092694092</v>
       </c>
       <c r="I4">
-        <v>-0.02424720098880395</v>
+        <v>-0.0415929295929296</v>
       </c>
       <c r="J4">
-        <v>-0.000461377845511382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.002958158854077139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>-0.03586075144300577</v>
+        <v>0.0005743445743445744</v>
       </c>
       <c r="E5">
-        <v>0.000514754059016236</v>
-      </c>
-      <c r="F5">
-        <v>-0.01840260161040644</v>
+        <v>-0.04104018504018504</v>
       </c>
       <c r="G5">
-        <v>0.001933351733406934</v>
+        <v>-0.04436824436824437</v>
       </c>
       <c r="H5">
-        <v>-0.03209043236172945</v>
+        <v>0.05326830526830527</v>
       </c>
       <c r="I5">
-        <v>0.0001651206604826419</v>
+        <v>0.02059155259155259</v>
       </c>
       <c r="J5">
-        <v>0.03097596390385562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>-0.01838512354772185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>0.03283097932391729</v>
+        <v>0.005832425832425833</v>
       </c>
       <c r="E6">
-        <v>-0.02496384385537542</v>
-      </c>
-      <c r="F6">
-        <v>0.01906058824235297</v>
+        <v>-0.03607612807612808</v>
       </c>
       <c r="G6">
-        <v>-0.02485574742298969</v>
+        <v>-0.04728231528231529</v>
       </c>
       <c r="H6">
-        <v>-0.0587563630254521</v>
+        <v>0.03918061518061518</v>
       </c>
       <c r="I6">
-        <v>-0.02494521978087913</v>
+        <v>0.06424772824772824</v>
       </c>
       <c r="J6">
-        <v>0.02637956151824607</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.07343723294587566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>-0.0602998562998563</v>
+      </c>
+      <c r="E7">
+        <v>0.009343821343821345</v>
+      </c>
+      <c r="G7">
+        <v>0.02396237996237996</v>
+      </c>
+      <c r="H7">
+        <v>-0.04414851214851215</v>
+      </c>
+      <c r="I7">
+        <v>-0.04071701271701272</v>
+      </c>
+      <c r="J7">
+        <v>-0.01630719132575874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>0.0304969744969745</v>
+      </c>
+      <c r="E8">
+        <v>-0.5738394338394338</v>
+      </c>
+      <c r="G8">
+        <v>-0.7556817116817117</v>
+      </c>
+      <c r="H8">
+        <v>0.999961203961204</v>
+      </c>
+      <c r="I8">
+        <v>0.8663863223863224</v>
+      </c>
+      <c r="J8">
+        <v>0.5262233322666254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0.9777261417261418</v>
+      </c>
+      <c r="E9">
+        <v>0.03509333909333909</v>
+      </c>
+      <c r="G9">
+        <v>0.02848109248109248</v>
+      </c>
+      <c r="H9">
+        <v>-0.0154017394017394</v>
+      </c>
+      <c r="I9">
+        <v>-0.01252329652329653</v>
+      </c>
+      <c r="J9">
+        <v>0.02289460808501157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>0.04636645746582986</v>
-      </c>
-      <c r="E7">
-        <v>0.8674642698570794</v>
-      </c>
-      <c r="F7">
-        <v>-0.4324191376765507</v>
-      </c>
-      <c r="G7">
-        <v>0.8642450889803558</v>
-      </c>
-      <c r="H7">
-        <v>0.9999676478705914</v>
-      </c>
-      <c r="I7">
-        <v>0.8722964491857966</v>
-      </c>
-      <c r="J7">
-        <v>-0.8934053016212066</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>-0.003814539814539815</v>
+      </c>
+      <c r="E10">
+        <v>-0.02189308589308589</v>
+      </c>
+      <c r="G10">
+        <v>-0.00888920088920089</v>
+      </c>
+      <c r="H10">
+        <v>0.03085584685584685</v>
+      </c>
+      <c r="I10">
+        <v>0.04376230376230376</v>
+      </c>
+      <c r="J10">
+        <v>0.03808252866882963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>0.9741897207588831</v>
-      </c>
-      <c r="E8">
-        <v>0.01016788067152269</v>
-      </c>
-      <c r="F8">
-        <v>0.04834464137856551</v>
-      </c>
-      <c r="G8">
-        <v>0.009958311833247331</v>
-      </c>
-      <c r="H8">
-        <v>-0.005547094188376753</v>
-      </c>
-      <c r="I8">
-        <v>0.009724550898203592</v>
-      </c>
-      <c r="J8">
-        <v>0.01942673370693483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>0.00377876711506846</v>
-      </c>
-      <c r="E9">
-        <v>0.02094507578030312</v>
-      </c>
-      <c r="F9">
-        <v>-0.06478403513614055</v>
-      </c>
-      <c r="G9">
-        <v>0.02130939723758895</v>
-      </c>
-      <c r="H9">
-        <v>0.00522942891771567</v>
-      </c>
-      <c r="I9">
-        <v>0.02101045204180817</v>
-      </c>
-      <c r="J9">
-        <v>0.006689498757995032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>-0.05626964026964028</v>
+      </c>
+      <c r="E11">
+        <v>0.0395982995982996</v>
+      </c>
+      <c r="G11">
+        <v>0.01987944787944788</v>
+      </c>
+      <c r="H11">
+        <v>-0.04398376398376398</v>
+      </c>
+      <c r="I11">
+        <v>-0.05291790491790493</v>
+      </c>
+      <c r="J11">
+        <v>0.0345170414703333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
-        <v>-0.1109796119184477</v>
-      </c>
-      <c r="E10">
-        <v>-0.03011109644438578</v>
-      </c>
-      <c r="F10">
-        <v>-0.8028266353065411</v>
-      </c>
-      <c r="G10">
-        <v>-0.03006924027696111</v>
-      </c>
-      <c r="H10">
-        <v>-0.0178500234000936</v>
-      </c>
-      <c r="I10">
-        <v>-0.02989346357385429</v>
-      </c>
-      <c r="J10">
-        <v>0.03043692174768699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>0.01593990375961504</v>
-      </c>
-      <c r="E11">
-        <v>-0.0650009000036</v>
-      </c>
-      <c r="F11">
-        <v>0.3287363229452917</v>
-      </c>
-      <c r="G11">
-        <v>-0.0649813159252637</v>
-      </c>
-      <c r="H11">
-        <v>-0.05243636974547897</v>
-      </c>
-      <c r="I11">
-        <v>-0.06519837279349118</v>
-      </c>
-      <c r="J11">
-        <v>0.04885574742298969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>0.1129673958695835</v>
+        <v>0.01593696393696394</v>
       </c>
       <c r="E12">
-        <v>0.5252010128040513</v>
-      </c>
-      <c r="F12">
-        <v>-0.2382414649658599</v>
+        <v>-0.01974984774984775</v>
       </c>
       <c r="G12">
-        <v>0.5302778971115885</v>
+        <v>0.006637170637170637</v>
       </c>
       <c r="H12">
-        <v>0.04400456001824007</v>
+        <v>-0.01356091356091356</v>
       </c>
       <c r="I12">
-        <v>0.5173999255997023</v>
+        <v>-0.02510431310431311</v>
       </c>
       <c r="J12">
-        <v>-0.03840831363325453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.02319205065166082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>-0.1838179832719331</v>
+        <v>0.07045031845031846</v>
       </c>
       <c r="E13">
-        <v>-0.02482771531086124</v>
-      </c>
-      <c r="F13">
-        <v>-0.04066125064500258</v>
+        <v>0.1258546378546379</v>
       </c>
       <c r="G13">
-        <v>-0.02396572786291145</v>
+        <v>0.06025479625479627</v>
       </c>
       <c r="H13">
-        <v>-0.04029760119040476</v>
+        <v>-0.01782400182400182</v>
       </c>
       <c r="I13">
-        <v>-0.02516909267637071</v>
+        <v>0.4709067749067749</v>
       </c>
       <c r="J13">
-        <v>0.04744022176088704</v>
+        <v>-0.01248638119999276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>-0.1916583356583357</v>
+      </c>
+      <c r="E14">
+        <v>-0.004674832674832675</v>
+      </c>
+      <c r="G14">
+        <v>0.007664635664635665</v>
+      </c>
+      <c r="H14">
+        <v>-0.02433710433710434</v>
+      </c>
+      <c r="I14">
+        <v>-0.02643480243480243</v>
+      </c>
+      <c r="J14">
+        <v>-0.022190363152674</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2_agile.xlsx
@@ -560,22 +560,22 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.01538629538629539</v>
+        <v>0.04321632163216321</v>
       </c>
       <c r="E4">
-        <v>0.03442185442185442</v>
+        <v>0.03375937593759375</v>
       </c>
       <c r="G4">
-        <v>0.01678666078666079</v>
+        <v>0.06677467746774676</v>
       </c>
       <c r="H4">
-        <v>-0.02492694092694092</v>
+        <v>-0.06741074107410741</v>
       </c>
       <c r="I4">
-        <v>-0.0415929295929296</v>
+        <v>-0.03313531353135313</v>
       </c>
       <c r="J4">
-        <v>0.002958158854077139</v>
+        <v>-0.3778668662055488</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -584,22 +584,22 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0.0005743445743445744</v>
+        <v>-0.1412301230123012</v>
       </c>
       <c r="E5">
-        <v>-0.04104018504018504</v>
+        <v>-0.106006600660066</v>
       </c>
       <c r="G5">
-        <v>-0.04436824436824437</v>
+        <v>0.01342934293429343</v>
       </c>
       <c r="H5">
-        <v>0.05326830526830527</v>
+        <v>-0.06672667266726671</v>
       </c>
       <c r="I5">
-        <v>0.02059155259155259</v>
+        <v>-0.1426222622262226</v>
       </c>
       <c r="J5">
-        <v>-0.01838512354772185</v>
+        <v>0.005223273418582731</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -608,22 +608,22 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>0.005832425832425833</v>
+        <v>0.05843384338433843</v>
       </c>
       <c r="E6">
-        <v>-0.03607612807612808</v>
+        <v>-0.132985298529853</v>
       </c>
       <c r="G6">
-        <v>-0.04728231528231529</v>
+        <v>-0.03218721872187218</v>
       </c>
       <c r="H6">
-        <v>0.03918061518061518</v>
+        <v>-0.0144974497449745</v>
       </c>
       <c r="I6">
-        <v>0.06424772824772824</v>
+        <v>-0.04927692769276927</v>
       </c>
       <c r="J6">
-        <v>0.07343723294587566</v>
+        <v>-0.09372439863746897</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -632,22 +632,22 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>-0.0602998562998563</v>
+        <v>-0.004956495649564956</v>
       </c>
       <c r="E7">
-        <v>0.009343821343821345</v>
+        <v>-0.05807380738073806</v>
       </c>
       <c r="G7">
-        <v>0.02396237996237996</v>
+        <v>-0.0329072907290729</v>
       </c>
       <c r="H7">
-        <v>-0.04414851214851215</v>
+        <v>0.006540654065406539</v>
       </c>
       <c r="I7">
-        <v>-0.04071701271701272</v>
+        <v>0.007704770477047704</v>
       </c>
       <c r="J7">
-        <v>-0.01630719132575874</v>
+        <v>-0.04798318952882156</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -656,22 +656,22 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>0.0304969744969745</v>
+        <v>0.0454005400540054</v>
       </c>
       <c r="E8">
-        <v>-0.5738394338394338</v>
+        <v>0.1906630663066306</v>
       </c>
       <c r="G8">
-        <v>-0.7556817116817117</v>
+        <v>-0.9257125712571256</v>
       </c>
       <c r="H8">
-        <v>0.999961203961204</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I8">
-        <v>0.8663863223863224</v>
+        <v>0.8634503450345034</v>
       </c>
       <c r="J8">
-        <v>0.5262233322666254</v>
+        <v>0.3602495884266467</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -682,22 +682,22 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>0.9777261417261418</v>
+        <v>0.9729972997299728</v>
       </c>
       <c r="E9">
-        <v>0.03509333909333909</v>
+        <v>0.1639243924392439</v>
       </c>
       <c r="G9">
-        <v>0.02848109248109248</v>
+        <v>0.07768376837683767</v>
       </c>
       <c r="H9">
-        <v>-0.0154017394017394</v>
+        <v>-0.0007320732073207321</v>
       </c>
       <c r="I9">
-        <v>-0.01252329652329653</v>
+        <v>0.09438943894389439</v>
       </c>
       <c r="J9">
-        <v>0.02289460808501157</v>
+        <v>0.0352105128723333</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -708,22 +708,22 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>-0.003814539814539815</v>
+        <v>-0.08392439243924392</v>
       </c>
       <c r="E10">
-        <v>-0.02189308589308589</v>
+        <v>-0.2229222922292229</v>
       </c>
       <c r="G10">
-        <v>-0.00888920088920089</v>
+        <v>-0.1218721872187219</v>
       </c>
       <c r="H10">
-        <v>0.03085584685584685</v>
+        <v>0.05572157215721572</v>
       </c>
       <c r="I10">
-        <v>0.04376230376230376</v>
+        <v>-0.03294329432943294</v>
       </c>
       <c r="J10">
-        <v>0.03808252866882963</v>
+        <v>0.0759568540743728</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -734,22 +734,22 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>-0.05626964026964028</v>
+        <v>-0.06389438943894389</v>
       </c>
       <c r="E11">
-        <v>0.0395982995982996</v>
+        <v>0.000588058805880588</v>
       </c>
       <c r="G11">
-        <v>0.01987944787944788</v>
+        <v>0.2182778277827783</v>
       </c>
       <c r="H11">
-        <v>-0.04398376398376398</v>
+        <v>-0.2049324932493249</v>
       </c>
       <c r="I11">
-        <v>-0.05291790491790493</v>
+        <v>-0.1291929192919292</v>
       </c>
       <c r="J11">
-        <v>0.0345170414703333</v>
+        <v>-0.2098084947630021</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -760,22 +760,22 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>0.01593696393696394</v>
+        <v>-0.02811881188118811</v>
       </c>
       <c r="E12">
-        <v>-0.01974984774984775</v>
+        <v>-0.0852085208520852</v>
       </c>
       <c r="G12">
-        <v>0.006637170637170637</v>
+        <v>0.05368136813681367</v>
       </c>
       <c r="H12">
-        <v>-0.01356091356091356</v>
+        <v>-0.09008100810081007</v>
       </c>
       <c r="I12">
-        <v>-0.02510431310431311</v>
+        <v>-0.1041584158415841</v>
       </c>
       <c r="J12">
-        <v>0.02319205065166082</v>
+        <v>0.02466779529328369</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -784,22 +784,22 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>0.07045031845031846</v>
+        <v>0.2622622262226222</v>
       </c>
       <c r="E13">
-        <v>0.1258546378546379</v>
+        <v>0.8611461146114611</v>
       </c>
       <c r="G13">
-        <v>0.06025479625479627</v>
+        <v>0.3498829882988299</v>
       </c>
       <c r="H13">
-        <v>-0.01782400182400182</v>
+        <v>-0.02807080708070807</v>
       </c>
       <c r="I13">
-        <v>0.4709067749067749</v>
+        <v>0.4652265226522652</v>
       </c>
       <c r="J13">
-        <v>-0.01248638119999276</v>
+        <v>-0.1093100694940685</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -808,22 +808,22 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>-0.1916583356583357</v>
+        <v>-0.1043744374437444</v>
       </c>
       <c r="E14">
-        <v>-0.004674832674832675</v>
+        <v>-0.1631563156315631</v>
       </c>
       <c r="G14">
-        <v>0.007664635664635665</v>
+        <v>-0.08169216921692168</v>
       </c>
       <c r="H14">
-        <v>-0.02433710433710434</v>
+        <v>0.03169516951695169</v>
       </c>
       <c r="I14">
-        <v>-0.02643480243480243</v>
+        <v>-0.03866786678667866</v>
       </c>
       <c r="J14">
-        <v>-0.022190363152674</v>
+        <v>0.06302188929095504</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Element</t>
   </si>
@@ -85,6 +85,24 @@
     <t>biorefinery</t>
   </si>
   <si>
+    <t>Stream-crude glycerol</t>
+  </si>
+  <si>
+    <t>Stream-pure glycerine</t>
+  </si>
+  <si>
+    <t>Stream-cellulase</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system</t>
+  </si>
+  <si>
+    <t>Pretreatment and saccharification</t>
+  </si>
+  <si>
+    <t>Cofermenation</t>
+  </si>
+  <si>
     <t>Cane lipid content [dry wt. %]</t>
   </si>
   <si>
@@ -113,6 +131,27 @@
   </si>
   <si>
     <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Cellulase loading [wt. % cellulose]</t>
+  </si>
+  <si>
+    <t>Base cost [million USD]</t>
+  </si>
+  <si>
+    <t>Glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Glucose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose to ethanol yield [%]</t>
   </si>
 </sst>
 </file>
@@ -470,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,121 +596,121 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>0.04321632163216321</v>
+        <v>-0.01872018583680743</v>
       </c>
       <c r="E4">
-        <v>0.03375937593759375</v>
+        <v>0.008664924826596991</v>
       </c>
       <c r="G4">
-        <v>0.06677467746774676</v>
+        <v>0.003205590944223637</v>
       </c>
       <c r="H4">
-        <v>-0.06741074107410741</v>
+        <v>-0.02225724175428967</v>
       </c>
       <c r="I4">
-        <v>-0.03313531353135313</v>
+        <v>-0.01926712281868491</v>
       </c>
       <c r="J4">
-        <v>-0.3778668662055488</v>
+        <v>0.01462343566151529</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.1412301230123012</v>
+        <v>-0.008663906458556258</v>
       </c>
       <c r="E5">
-        <v>-0.106006600660066</v>
+        <v>-0.01244344091373763</v>
       </c>
       <c r="G5">
-        <v>0.01342934293429343</v>
+        <v>-0.009917670636706823</v>
       </c>
       <c r="H5">
-        <v>-0.06672667266726671</v>
+        <v>0.002330263197210527</v>
       </c>
       <c r="I5">
-        <v>-0.1426222622262226</v>
+        <v>-0.0009816489032659559</v>
       </c>
       <c r="J5">
-        <v>0.005223273418582731</v>
+        <v>0.00281660288534416</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>0.05843384338433843</v>
+        <v>0.005172327566893102</v>
       </c>
       <c r="E6">
-        <v>-0.132985298529853</v>
+        <v>0.01592268927690757</v>
       </c>
       <c r="G6">
-        <v>-0.03218721872187218</v>
+        <v>0.01050879555635182</v>
       </c>
       <c r="H6">
-        <v>-0.0144974497449745</v>
+        <v>0.0002081100563244022</v>
       </c>
       <c r="I6">
-        <v>-0.04927692769276927</v>
+        <v>-0.003178638271145531</v>
       </c>
       <c r="J6">
-        <v>-0.09372439863746897</v>
+        <v>0.01306171845696569</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>-0.004956495649564956</v>
+        <v>0.003711844660473786</v>
       </c>
       <c r="E7">
-        <v>-0.05807380738073806</v>
+        <v>0.00799635775985431</v>
       </c>
       <c r="G7">
-        <v>-0.0329072907290729</v>
+        <v>0.01061265152850606</v>
       </c>
       <c r="H7">
-        <v>0.006540654065406539</v>
+        <v>0.009266903602676142</v>
       </c>
       <c r="I7">
-        <v>0.007704770477047704</v>
+        <v>0.0009264983410599334</v>
       </c>
       <c r="J7">
-        <v>-0.04798318952882156</v>
+        <v>-0.008311832983149059</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>0.0454005400540054</v>
+        <v>0.09906571183462846</v>
       </c>
       <c r="E8">
-        <v>0.1906630663066306</v>
+        <v>0.003319033092761323</v>
       </c>
       <c r="G8">
-        <v>-0.9257125712571256</v>
+        <v>-0.01287873382714935</v>
       </c>
       <c r="H8">
-        <v>0.9999999999999999</v>
+        <v>0.9813190557007622</v>
       </c>
       <c r="I8">
-        <v>0.8634503450345034</v>
+        <v>0.974378954879158</v>
       </c>
       <c r="J8">
-        <v>0.3602495884266467</v>
+        <v>0.01614513631948846</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -679,25 +718,25 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>0.9729972997299728</v>
+        <v>0.9542819602192784</v>
       </c>
       <c r="E9">
-        <v>0.1639243924392439</v>
+        <v>0.004938495365539814</v>
       </c>
       <c r="G9">
-        <v>0.07768376837683767</v>
+        <v>-0.001715374340614973</v>
       </c>
       <c r="H9">
-        <v>-0.0007320732073207321</v>
+        <v>-0.02666081367443255</v>
       </c>
       <c r="I9">
-        <v>0.09438943894389439</v>
+        <v>-0.02604824427392977</v>
       </c>
       <c r="J9">
-        <v>0.0352105128723333</v>
+        <v>0.02174168477581664</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -705,25 +744,25 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>-0.08392439243924392</v>
+        <v>0.004633077977323118</v>
       </c>
       <c r="E10">
-        <v>-0.2229222922292229</v>
+        <v>-0.004318801804752071</v>
       </c>
       <c r="G10">
-        <v>-0.1218721872187219</v>
+        <v>0.0002164983446599338</v>
       </c>
       <c r="H10">
-        <v>0.05572157215721572</v>
+        <v>0.01139245264769811</v>
       </c>
       <c r="I10">
-        <v>-0.03294329432943294</v>
+        <v>0.008461169330446773</v>
       </c>
       <c r="J10">
-        <v>0.0759568540743728</v>
+        <v>-0.01603021816808957</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -731,25 +770,25 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>-0.06389438943894389</v>
+        <v>-0.0139813374552535</v>
       </c>
       <c r="E11">
-        <v>0.000588058805880588</v>
+        <v>0.007653537618141504</v>
       </c>
       <c r="G11">
-        <v>0.2182778277827783</v>
+        <v>0.00455106978204279</v>
       </c>
       <c r="H11">
-        <v>-0.2049324932493249</v>
+        <v>0.007043801081752042</v>
       </c>
       <c r="I11">
-        <v>-0.1291929192919292</v>
+        <v>0.00758259678330387</v>
       </c>
       <c r="J11">
-        <v>-0.2098084947630021</v>
+        <v>0.001858249079641509</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -757,80 +796,311 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>-0.02811881188118811</v>
+        <v>0.02768172667526906</v>
       </c>
       <c r="E12">
-        <v>-0.0852085208520852</v>
+        <v>0.005015854472634178</v>
       </c>
       <c r="G12">
-        <v>0.05368136813681367</v>
+        <v>0.003109101052364041</v>
       </c>
       <c r="H12">
-        <v>-0.09008100810081007</v>
+        <v>0.0219217525568701</v>
       </c>
       <c r="I12">
-        <v>-0.1041584158415841</v>
+        <v>0.0207861575674463</v>
       </c>
       <c r="J12">
-        <v>0.02466779529328369</v>
+        <v>0.00850402782752333</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>0.2622622262226222</v>
+        <v>0.07419288200771526</v>
       </c>
       <c r="E13">
-        <v>0.8611461146114611</v>
+        <v>0.004447120785884831</v>
       </c>
       <c r="G13">
-        <v>0.3498829882988299</v>
+        <v>-0.00359526350381054</v>
       </c>
       <c r="H13">
-        <v>-0.02807080708070807</v>
+        <v>-0.01190910518036421</v>
       </c>
       <c r="I13">
-        <v>0.4652265226522652</v>
+        <v>0.2067890159195606</v>
       </c>
       <c r="J13">
-        <v>-0.1093100694940685</v>
+        <v>0.007917316829748527</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>-0.1043744374437444</v>
+        <v>-0.181145151405806</v>
       </c>
       <c r="E14">
-        <v>-0.1631563156315631</v>
+        <v>-0.001062775434511017</v>
       </c>
       <c r="G14">
-        <v>-0.08169216921692168</v>
+        <v>-0.001173795694951828</v>
       </c>
       <c r="H14">
-        <v>0.03169516951695169</v>
+        <v>0.01941646359265854</v>
       </c>
       <c r="I14">
-        <v>-0.03866786678667866</v>
+        <v>0.02511686980467479</v>
       </c>
       <c r="J14">
-        <v>0.06302188929095504</v>
+        <v>0.001909759466957954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>-0.01277722947108918</v>
+      </c>
+      <c r="E15">
+        <v>0.009341105845644232</v>
+      </c>
+      <c r="G15">
+        <v>0.01233837332553493</v>
+      </c>
+      <c r="H15">
+        <v>0.002626834857073394</v>
+      </c>
+      <c r="I15">
+        <v>0.003835622073424882</v>
+      </c>
+      <c r="J15">
+        <v>-0.001807113956349225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>-0.004111017092440683</v>
+      </c>
+      <c r="E16">
+        <v>-0.001598739519949581</v>
+      </c>
+      <c r="G16">
+        <v>-0.0009761016390440654</v>
+      </c>
+      <c r="H16">
+        <v>0.02953779814151192</v>
+      </c>
+      <c r="I16">
+        <v>0.02279120855964833</v>
+      </c>
+      <c r="J16">
+        <v>0.0004208061870931857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>-0.05054158214966328</v>
+      </c>
+      <c r="E17">
+        <v>-0.004070838786833551</v>
+      </c>
+      <c r="G17">
+        <v>0.001633359521334381</v>
+      </c>
+      <c r="H17">
+        <v>0.04318200163128006</v>
+      </c>
+      <c r="I17">
+        <v>0.04670276855611073</v>
+      </c>
+      <c r="J17">
+        <v>-0.01451312349441295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>0.02603518644940745</v>
+      </c>
+      <c r="E18">
+        <v>-0.01147393639495745</v>
+      </c>
+      <c r="G18">
+        <v>-0.006629770729190828</v>
+      </c>
+      <c r="H18">
+        <v>0.01299372944774918</v>
+      </c>
+      <c r="I18">
+        <v>0.01622840628113625</v>
+      </c>
+      <c r="J18">
+        <v>-0.003996017681279603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>-0.03052129302885172</v>
+      </c>
+      <c r="E19">
+        <v>0.02988183460327338</v>
+      </c>
+      <c r="G19">
+        <v>0.03090082405203296</v>
+      </c>
+      <c r="H19">
+        <v>0.1878021709680868</v>
+      </c>
+      <c r="I19">
+        <v>0.003863478394539135</v>
+      </c>
+      <c r="J19">
+        <v>-0.00146147241409544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>0.03479382695975308</v>
+      </c>
+      <c r="E20">
+        <v>0.2472170067846803</v>
+      </c>
+      <c r="G20">
+        <v>0.232911876388475</v>
+      </c>
+      <c r="H20">
+        <v>0.01166759240270369</v>
+      </c>
+      <c r="I20">
+        <v>-0.001004246920169877</v>
+      </c>
+      <c r="J20">
+        <v>-0.1463784983204333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>0.08487786723511467</v>
+      </c>
+      <c r="E21">
+        <v>0.3982084093363363</v>
+      </c>
+      <c r="G21">
+        <v>0.09530755370030213</v>
+      </c>
+      <c r="H21">
+        <v>0.006564748294589931</v>
+      </c>
+      <c r="I21">
+        <v>0.02428224865128994</v>
+      </c>
+      <c r="J21">
+        <v>0.9343579361897016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>0.01001100635244025</v>
+      </c>
+      <c r="E22">
+        <v>-0.008940768837630753</v>
+      </c>
+      <c r="G22">
+        <v>-0.006917342292693691</v>
+      </c>
+      <c r="H22">
+        <v>-0.005763718118548724</v>
+      </c>
+      <c r="I22">
+        <v>-0.0009532179261287168</v>
+      </c>
+      <c r="J22">
+        <v>-0.006714976224337031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>0.0822693774027751</v>
+      </c>
+      <c r="E23">
+        <v>0.8707920958876838</v>
+      </c>
+      <c r="G23">
+        <v>0.9599115147804604</v>
+      </c>
+      <c r="H23">
+        <v>0.01177128565485143</v>
+      </c>
+      <c r="I23">
+        <v>-0.01008051323522053</v>
+      </c>
+      <c r="J23">
+        <v>-0.2215270908548003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Element</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Stream-sugarcane</t>
+    <t>biorefinery</t>
   </si>
   <si>
     <t>Stream-ethanol</t>
@@ -82,16 +82,13 @@
     <t>Stream-natural gas</t>
   </si>
   <si>
-    <t>biorefinery</t>
-  </si>
-  <si>
     <t>Stream-crude glycerol</t>
   </si>
   <si>
     <t>Stream-pure glycerine</t>
   </si>
   <si>
-    <t>Stream-cellulase</t>
+    <t>cellulase</t>
   </si>
   <si>
     <t>Pretreatment reactor system</t>
@@ -103,76 +100,82 @@
     <t>Cofermenation</t>
   </si>
   <si>
+    <t>lipidcane</t>
+  </si>
+  <si>
+    <t>lipidsorghum</t>
+  </si>
+  <si>
+    <t>Lipid retention [%]</t>
+  </si>
+  <si>
+    <t>Bagasse lipid extraction efficiency [%]</t>
+  </si>
+  <si>
+    <t>Capacity [ton/hr]</t>
+  </si>
+  <si>
+    <t>Price [USD/gal]</t>
+  </si>
+  <si>
+    <t>Price [USD/cf]</t>
+  </si>
+  <si>
+    <t>Electricity price [USD/kWh]</t>
+  </si>
+  <si>
+    <t>Operating days [day/yr]</t>
+  </si>
+  <si>
+    <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Cellulase loading [wt. % cellulose]</t>
+  </si>
+  <si>
+    <t>Base cost [million USD]</t>
+  </si>
+  <si>
+    <t>Cane glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Cane xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Glucose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Cane  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA [% lipid]</t>
+  </si>
+  <si>
     <t>Cane lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
-    <t>Lipid retention [%]</t>
-  </si>
-  <si>
-    <t>Bagasse lipid extraction efficiency [%]</t>
-  </si>
-  <si>
-    <t>Capacity [ton/hr]</t>
-  </si>
-  <si>
-    <t>Cane  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Cane  FFA [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA [% lipid]</t>
-  </si>
-  <si>
     <t>TAG to  FFA conversion [% lipid]</t>
-  </si>
-  <si>
-    <t>Price [USD/gal]</t>
-  </si>
-  <si>
-    <t>Price [USD/cf]</t>
-  </si>
-  <si>
-    <t>Electricity price [USD/kWh]</t>
-  </si>
-  <si>
-    <t>Operating days [day/yr]</t>
-  </si>
-  <si>
-    <t>IRR [%]</t>
-  </si>
-  <si>
-    <t>Price [USD/kg]</t>
-  </si>
-  <si>
-    <t>Cellulase loading [wt. % cellulose]</t>
-  </si>
-  <si>
-    <t>Base cost [million USD]</t>
-  </si>
-  <si>
-    <t>Cane glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Cane xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Glucose to ethanol yield [%]</t>
-  </si>
-  <si>
-    <t>Xylose to ethanol yield [%]</t>
   </si>
 </sst>
 </file>
@@ -617,190 +620,198 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>-0.04805850005850006</v>
+        <v>-0.008817968817968818</v>
       </c>
       <c r="E4">
-        <v>0.01160515160515161</v>
+        <v>-0.01554777954777955</v>
       </c>
       <c r="F4">
-        <v>0.004253205116732386</v>
+        <v>0.03363904546683703</v>
       </c>
       <c r="G4">
-        <v>0.02293843169900087</v>
+        <v>-0.003424123970009555</v>
       </c>
       <c r="H4">
-        <v>0.02548609348609349</v>
+        <v>0.03102269502269503</v>
       </c>
       <c r="I4">
-        <v>0.02838746838746839</v>
+        <v>0.02172424572424573</v>
       </c>
       <c r="J4">
-        <v>-0.0003618123639832382</v>
+        <v>0.006914358976588209</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>-0.01986420786420786</v>
+        <v>-0.003720987720987721</v>
       </c>
       <c r="E5">
-        <v>-0.00172995772995773</v>
+        <v>0.01046563046563047</v>
       </c>
       <c r="F5">
-        <v>0.0109594552579006</v>
+        <v>0.001932754128925364</v>
       </c>
       <c r="G5">
-        <v>0.003957880582884214</v>
+        <v>0.0158517144868053</v>
       </c>
       <c r="H5">
-        <v>0.005044757044757045</v>
+        <v>0.04559304959304959</v>
       </c>
       <c r="I5">
-        <v>-0.00532930132930133</v>
+        <v>0.02876791676791677</v>
       </c>
       <c r="J5">
-        <v>0.001554913564243046</v>
+        <v>-0.01051337860799902</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>0.05073089073089073</v>
+        <v>0.16202415002415</v>
       </c>
       <c r="E6">
-        <v>0.01310772110772111</v>
+        <v>-0.01608847608847609</v>
       </c>
       <c r="F6">
-        <v>-0.003944749625846846</v>
+        <v>-0.05604560737183781</v>
       </c>
       <c r="G6">
-        <v>0.01177385321817813</v>
+        <v>0.04222638562486149</v>
       </c>
       <c r="H6">
-        <v>0.02303162303162304</v>
+        <v>0.9764593964593964</v>
       </c>
       <c r="I6">
-        <v>0.02813134013134014</v>
+        <v>0.9742967062967064</v>
       </c>
       <c r="J6">
-        <v>-0.0007363807407990252</v>
+        <v>-0.3136292504519138</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>-0.03335434535434536</v>
+        <v>0.9193765993765994</v>
       </c>
       <c r="E7">
-        <v>0.04098980898980899</v>
+        <v>-0.08894345294345296</v>
       </c>
       <c r="F7">
-        <v>-0.06923402109009967</v>
+        <v>0.0842216876633862</v>
       </c>
       <c r="G7">
-        <v>0.02765809332225638</v>
+        <v>-0.0846770999711305</v>
       </c>
       <c r="H7">
-        <v>-0.06487114087114086</v>
+        <v>0.01556679956679957</v>
       </c>
       <c r="I7">
-        <v>-0.05220785220785221</v>
+        <v>0.01506395106395106</v>
       </c>
       <c r="J7">
-        <v>-0.06135924172739718</v>
+        <v>0.05384929833394202</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.1518048678048678</v>
+        <v>-0.03191269991269992</v>
       </c>
       <c r="E8">
-        <v>0.02100854100854101</v>
+        <v>0.01719058119058119</v>
       </c>
       <c r="F8">
-        <v>-0.05084982962373674</v>
+        <v>-0.01759422816801407</v>
       </c>
       <c r="G8">
-        <v>0.06378705303713487</v>
+        <v>0.02017548926533453</v>
       </c>
       <c r="H8">
-        <v>0.9749696069696072</v>
+        <v>0.0223946143946144</v>
       </c>
       <c r="I8">
-        <v>0.977944025944026</v>
+        <v>0.02235392235392235</v>
       </c>
       <c r="J8">
-        <v>-0.3233697373099558</v>
+        <v>-0.01686820702002089</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.003041463041463042</v>
+        <v>-0.01153263553263553</v>
       </c>
       <c r="E9">
-        <v>-0.05023020223020224</v>
+        <v>0.0247994887994888</v>
       </c>
       <c r="F9">
-        <v>0.04117026069775354</v>
+        <v>-0.007900917701472478</v>
       </c>
       <c r="G9">
-        <v>-0.04422692629752863</v>
+        <v>0.02523450039590993</v>
       </c>
       <c r="H9">
-        <v>0.02811943611943612</v>
+        <v>-0.02382805182805183</v>
       </c>
       <c r="I9">
-        <v>0.03047064647064647</v>
+        <v>-0.02097303297303297</v>
       </c>
       <c r="J9">
-        <v>0.03659571681529112</v>
+        <v>-0.007439467506422715</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.01243586443586444</v>
+        <v>-0.003653235653235654</v>
       </c>
       <c r="E10">
-        <v>-0.02216641016641017</v>
+        <v>-0.005839241839241839</v>
       </c>
       <c r="F10">
-        <v>0.03342934016759175</v>
+        <v>-0.01728988707127293</v>
       </c>
       <c r="G10">
-        <v>-0.02924652840524187</v>
+        <v>-0.01787488873476713</v>
       </c>
       <c r="H10">
-        <v>-0.06740886740886741</v>
+        <v>-0.05165897165897166</v>
       </c>
       <c r="I10">
-        <v>-0.0893987573987574</v>
+        <v>-0.02926784926784927</v>
       </c>
       <c r="J10">
-        <v>0.06787309428033285</v>
+        <v>0.002653250677129933</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -809,25 +820,25 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.03773713373713374</v>
+        <v>0.1125736365736366</v>
       </c>
       <c r="E11">
-        <v>-0.003512331512331513</v>
+        <v>0.008755460755460756</v>
       </c>
       <c r="F11">
-        <v>-0.004447405409040826</v>
+        <v>-0.008970920191442135</v>
       </c>
       <c r="G11">
-        <v>-0.006535096851202817</v>
+        <v>0.008437390457611991</v>
       </c>
       <c r="H11">
-        <v>-0.009946341946341947</v>
+        <v>-0.04682621882621883</v>
       </c>
       <c r="I11">
-        <v>-0.01283276483276483</v>
+        <v>0.1744210504210504</v>
       </c>
       <c r="J11">
-        <v>-0.005671553705583028</v>
+        <v>-0.006002292056312686</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -836,541 +847,547 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-0.02394949194949195</v>
+        <v>-0.1550660990660991</v>
       </c>
       <c r="E12">
-        <v>0.02285006285006285</v>
+        <v>0.01231827631827632</v>
       </c>
       <c r="F12">
-        <v>-0.01465919021245939</v>
+        <v>-0.008787044916400014</v>
       </c>
       <c r="G12">
-        <v>0.01846577467768555</v>
+        <v>0.01566436607499597</v>
       </c>
       <c r="H12">
-        <v>-0.05920867120867121</v>
+        <v>-0.03646137646137647</v>
       </c>
       <c r="I12">
-        <v>-0.03755493755493756</v>
+        <v>-0.0290987330987331</v>
       </c>
       <c r="J12">
-        <v>-0.04043395667656042</v>
+        <v>0.009259143342475632</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.01770978570978571</v>
+        <v>0.02478057678057678</v>
       </c>
       <c r="E13">
-        <v>0.003114039114039114</v>
+        <v>-0.005695085695085696</v>
       </c>
       <c r="F13">
-        <v>-0.01292379933255645</v>
+        <v>0.003609159255343721</v>
       </c>
       <c r="G13">
-        <v>0.002731838663954619</v>
+        <v>-0.007722203596752985</v>
       </c>
       <c r="H13">
-        <v>0.01925586725586726</v>
+        <v>0.001956985956985958</v>
       </c>
       <c r="I13">
-        <v>0.01813471813471814</v>
+        <v>0.0061001461001461</v>
       </c>
       <c r="J13">
-        <v>-0.007035139077349911</v>
+        <v>0.00717259923715263</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>0.9279804999805001</v>
+        <v>-0.021002265002265</v>
       </c>
       <c r="E14">
-        <v>-0.005913701913701914</v>
+        <v>-0.003936339936339937</v>
       </c>
       <c r="F14">
-        <v>0.007808910088727858</v>
+        <v>-0.01465678288140734</v>
       </c>
       <c r="G14">
-        <v>-0.001652385370423109</v>
+        <v>-0.01466972517788842</v>
       </c>
       <c r="H14">
-        <v>-0.0009579969579969582</v>
+        <v>0.03466987066987067</v>
       </c>
       <c r="I14">
-        <v>0.002840966840966841</v>
+        <v>0.03047980247980248</v>
       </c>
       <c r="J14">
-        <v>0.01678697888770076</v>
+        <v>0.008112398185409771</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>-0.02331863931863932</v>
+      </c>
+      <c r="E15">
+        <v>0.01529359529359529</v>
+      </c>
+      <c r="F15">
+        <v>0.009547337885371862</v>
+      </c>
+      <c r="G15">
+        <v>0.01578667228560703</v>
+      </c>
+      <c r="H15">
+        <v>-0.00502987702987703</v>
+      </c>
+      <c r="I15">
+        <v>0.01214672414672415</v>
+      </c>
+      <c r="J15">
+        <v>-0.00545825350737779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>-0.009159357159357159</v>
-      </c>
-      <c r="E15">
-        <v>0.008670956670956673</v>
-      </c>
-      <c r="F15">
-        <v>-0.02771729139851651</v>
-      </c>
-      <c r="G15">
-        <v>0.01116862612310189</v>
-      </c>
-      <c r="H15">
-        <v>-0.05476157476157476</v>
-      </c>
-      <c r="I15">
-        <v>-0.06332244332244331</v>
-      </c>
-      <c r="J15">
-        <v>0.01954638166365995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>-0.05587461187461188</v>
+        <v>0.007990147990147989</v>
       </c>
       <c r="E16">
-        <v>-0.02201878601878602</v>
+        <v>-0.04711919911919912</v>
       </c>
       <c r="F16">
-        <v>0.02402144769558278</v>
+        <v>0.05711559637330432</v>
       </c>
       <c r="G16">
-        <v>-0.03105953996896732</v>
+        <v>-0.04438511119765547</v>
       </c>
       <c r="H16">
-        <v>-0.003778359778359779</v>
+        <v>-0.004666828666828667</v>
       </c>
       <c r="I16">
-        <v>-0.008551280551280552</v>
+        <v>-0.002931770931770932</v>
       </c>
       <c r="J16">
-        <v>0.02823139640078478</v>
+        <v>0.06881340943273012</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>-0.03680769680769681</v>
+      </c>
+      <c r="E17">
+        <v>0.04005143205143206</v>
+      </c>
+      <c r="F17">
+        <v>-0.04772503536013129</v>
+      </c>
+      <c r="G17">
+        <v>0.03458175439087563</v>
+      </c>
+      <c r="H17">
+        <v>0.1848772128772129</v>
+      </c>
+      <c r="I17">
+        <v>-0.007610803610803612</v>
+      </c>
+      <c r="J17">
+        <v>-0.05717484368941729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17">
-        <v>0.002693570693570694</v>
-      </c>
-      <c r="E17">
-        <v>0.03328066528066528</v>
-      </c>
-      <c r="F17">
-        <v>-0.03347476046673251</v>
-      </c>
-      <c r="G17">
-        <v>0.03556456582565171</v>
-      </c>
-      <c r="H17">
-        <v>0.007585267585267584</v>
-      </c>
-      <c r="I17">
-        <v>0.001472761472761473</v>
-      </c>
-      <c r="J17">
-        <v>-0.009778425837096393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C18">
-        <v>0.04414732414732415</v>
+        <v>0.06760259560259561</v>
       </c>
       <c r="E18">
-        <v>0.002396714396714397</v>
+        <v>0.1081047961047961</v>
       </c>
       <c r="F18">
-        <v>0.002775535857389681</v>
+        <v>-0.07966947970979057</v>
       </c>
       <c r="G18">
-        <v>-0.0001152901392031432</v>
+        <v>0.08558085559401557</v>
       </c>
       <c r="H18">
-        <v>-0.01952362352362352</v>
+        <v>0.01857958257958258</v>
       </c>
       <c r="I18">
-        <v>0.1891953571953572</v>
+        <v>0.01905475905475906</v>
       </c>
       <c r="J18">
-        <v>0.003029223047398386</v>
+        <v>-0.03126281554418089</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>0.03508163908163909</v>
+      </c>
+      <c r="E19">
+        <v>0.03424717024717025</v>
+      </c>
+      <c r="F19">
+        <v>-0.02823196316012963</v>
+      </c>
+      <c r="G19">
+        <v>0.02419022575993668</v>
+      </c>
+      <c r="H19">
+        <v>-0.03175931575931576</v>
+      </c>
+      <c r="I19">
+        <v>-0.02550434550434551</v>
+      </c>
+      <c r="J19">
+        <v>-0.1671488346531742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
-        <v>-0.1454709134709135</v>
-      </c>
-      <c r="E19">
-        <v>0.01564749964749965</v>
-      </c>
-      <c r="F19">
-        <v>0.02483178071933729</v>
-      </c>
-      <c r="G19">
-        <v>0.01905081277282236</v>
-      </c>
-      <c r="H19">
-        <v>-0.008114492114492115</v>
-      </c>
-      <c r="I19">
-        <v>-0.01142872742872743</v>
-      </c>
-      <c r="J19">
-        <v>-0.01852941664059314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C20">
-        <v>0.03890771090771091</v>
+        <v>-0.05891811491811492</v>
       </c>
       <c r="E20">
-        <v>0.0444926964926965</v>
+        <v>0.1141150261150261</v>
       </c>
       <c r="F20">
-        <v>-0.05014297705699063</v>
+        <v>-0.07307891613605005</v>
       </c>
       <c r="G20">
-        <v>0.04118971824448413</v>
+        <v>0.08732326300473812</v>
       </c>
       <c r="H20">
-        <v>0.0192046992046992</v>
+        <v>-0.09092583092583094</v>
       </c>
       <c r="I20">
-        <v>0.01041791841791842</v>
+        <v>-0.08208890208890209</v>
       </c>
       <c r="J20">
-        <v>-0.04990806820751662</v>
+        <v>0.03842151276730638</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.01470685470685471</v>
+        <v>-0.00973787773787774</v>
       </c>
       <c r="E21">
-        <v>0.002992202992202992</v>
+        <v>0.03288899688899689</v>
       </c>
       <c r="F21">
-        <v>0.01476526036451482</v>
+        <v>-0.01412045301886151</v>
       </c>
       <c r="G21">
-        <v>-0.003027501093292997</v>
+        <v>0.02942099810182577</v>
       </c>
       <c r="H21">
-        <v>0.001620445620445621</v>
+        <v>-0.02055669255669256</v>
       </c>
       <c r="I21">
-        <v>0.003907131907131907</v>
+        <v>-0.02391518391518392</v>
       </c>
       <c r="J21">
-        <v>0.03871310694538559</v>
+        <v>-0.154323809712724</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>-0.1088560208560209</v>
+        <v>0.0254953454953455</v>
       </c>
       <c r="E22">
-        <v>-0.03070507870507871</v>
+        <v>2.140802140802141E-05</v>
       </c>
       <c r="F22">
-        <v>0.01160514808358805</v>
+        <v>0.01014258552970936</v>
       </c>
       <c r="G22">
-        <v>-0.03107774820779143</v>
+        <v>0.009598276336518174</v>
       </c>
       <c r="H22">
-        <v>0.03107943107943108</v>
+        <v>0.05337170937170937</v>
       </c>
       <c r="I22">
-        <v>0.02280578280578281</v>
+        <v>0.04107894507894508</v>
       </c>
       <c r="J22">
-        <v>0.00345667547741553</v>
+        <v>0.003336339366366421</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>0.01217094017094017</v>
+        <v>0.1442900282900283</v>
       </c>
       <c r="E23">
-        <v>0.02344503544503545</v>
+        <v>0.9856374016374018</v>
       </c>
       <c r="F23">
-        <v>0.003395895293187104</v>
+        <v>-0.8775362928470456</v>
       </c>
       <c r="G23">
-        <v>0.03277890213138935</v>
+        <v>0.9596598478237856</v>
       </c>
       <c r="H23">
-        <v>0.01498377898377899</v>
+        <v>-0.05935966735966736</v>
       </c>
       <c r="I23">
-        <v>0.02353199953199953</v>
+        <v>-0.002294846294846295</v>
       </c>
       <c r="J23">
-        <v>0.008721248773576266</v>
+        <v>-0.7763967333843041</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>-0.1015281295281295</v>
+        <v>0.02410506010506011</v>
       </c>
       <c r="E24">
-        <v>0.01256488856488857</v>
+        <v>-0.038986058986059</v>
       </c>
       <c r="F24">
-        <v>-0.005143188035819092</v>
+        <v>0.0335558079138525</v>
       </c>
       <c r="G24">
-        <v>0.01560172943643107</v>
+        <v>-0.0302395634181665</v>
       </c>
       <c r="H24">
-        <v>0.1478902838902839</v>
+        <v>0.006626538626538627</v>
       </c>
       <c r="I24">
-        <v>-0.05177709977709978</v>
+        <v>-0.009307569307569308</v>
       </c>
       <c r="J24">
-        <v>-0.000121524122253267</v>
+        <v>0.00750732157488747</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>0.01005827805827806</v>
+        <v>0.02821441621441622</v>
       </c>
       <c r="E25">
-        <v>0.09443127443127444</v>
+        <v>0.007905151905151906</v>
       </c>
       <c r="F25">
-        <v>-0.09752753976374184</v>
+        <v>0.01085283615196714</v>
       </c>
       <c r="G25">
-        <v>0.06016069773235407</v>
+        <v>0.005376117285379815</v>
       </c>
       <c r="H25">
-        <v>-0.02383775983775984</v>
+        <v>-0.03553088353088353</v>
       </c>
       <c r="I25">
-        <v>-0.01576635976635977</v>
+        <v>-0.03137812337812338</v>
       </c>
       <c r="J25">
-        <v>-0.03655140677071522</v>
+        <v>0.01610345224838332</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>0.09131255531255532</v>
+        <v>-0.0284954204954205</v>
       </c>
       <c r="E26">
-        <v>0.04952182952182953</v>
+        <v>0.02655031455031455</v>
       </c>
       <c r="F26">
-        <v>-0.05292001574259413</v>
+        <v>-0.04272032859111328</v>
       </c>
       <c r="G26">
-        <v>0.04891760237303442</v>
+        <v>0.0258301114256832</v>
       </c>
       <c r="H26">
-        <v>-0.02008436008436009</v>
+        <v>-0.03878400278400278</v>
       </c>
       <c r="I26">
-        <v>0.001316821316821317</v>
+        <v>-0.03308152508152509</v>
       </c>
       <c r="J26">
-        <v>-0.1809884300743607</v>
+        <v>-0.02466430288628161</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>0.03625460425460426</v>
+        <v>-0.003115647115647116</v>
       </c>
       <c r="E27">
-        <v>0.1800546240546241</v>
+        <v>-0.0143966903966904</v>
       </c>
       <c r="F27">
-        <v>-0.1465542911649213</v>
+        <v>0.01950983840942635</v>
       </c>
       <c r="G27">
-        <v>0.1546306508578069</v>
+        <v>-0.03155801623288561</v>
       </c>
       <c r="H27">
-        <v>-0.009277545277545277</v>
+        <v>0.02687319887319887</v>
       </c>
       <c r="I27">
-        <v>-0.01675240075240075</v>
+        <v>0.03942546342546343</v>
       </c>
       <c r="J27">
-        <v>-0.05378647210919094</v>
+        <v>-0.00736656743286654</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>0.009281649281649281</v>
+        <v>0.0301984981984982</v>
       </c>
       <c r="E28">
-        <v>0.04035107235107235</v>
+        <v>-0.0143968223968224</v>
       </c>
       <c r="F28">
-        <v>-0.04080951483589266</v>
+        <v>0.02474867861625108</v>
       </c>
       <c r="G28">
-        <v>0.03633048062835063</v>
+        <v>0.003871111135507734</v>
       </c>
       <c r="H28">
-        <v>-0.03730843330843331</v>
+        <v>0.00944840144840145</v>
       </c>
       <c r="I28">
-        <v>-0.02799691599691599</v>
+        <v>0.003501615501615502</v>
       </c>
       <c r="J28">
-        <v>-0.1639774049612694</v>
+        <v>0.02613160436678881</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>-0.008730812730812731</v>
+        <v>-0.06418354018354019</v>
       </c>
       <c r="E29">
-        <v>-0.05294882894882895</v>
+        <v>-0.03154146754146755</v>
       </c>
       <c r="F29">
-        <v>0.05962109991177735</v>
+        <v>0.04231124926735465</v>
       </c>
       <c r="G29">
-        <v>-0.04993545522616575</v>
+        <v>-0.02748904811425772</v>
       </c>
       <c r="H29">
-        <v>0.007775023775023776</v>
+        <v>-0.02032193632193632</v>
       </c>
       <c r="I29">
-        <v>-0.00714010314010314</v>
+        <v>-0.0318975798975799</v>
       </c>
       <c r="J29">
-        <v>0.04026179250336326</v>
+        <v>0.0156011617415722</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>0.2220919380919381</v>
+        <v>0.041000117000117</v>
       </c>
       <c r="E30">
-        <v>0.9867139827139828</v>
+        <v>0.02932435732435732</v>
       </c>
       <c r="F30">
-        <v>-0.8822506934912109</v>
+        <v>-0.01347614768854042</v>
       </c>
       <c r="G30">
-        <v>0.9618325981817945</v>
+        <v>0.02966488324362579</v>
       </c>
       <c r="H30">
-        <v>-0.02847341247341247</v>
+        <v>0.02154484554484555</v>
       </c>
       <c r="I30">
-        <v>0.02638017838017838</v>
+        <v>0.01301083301083301</v>
       </c>
       <c r="J30">
-        <v>-0.7777533564198765</v>
+        <v>-0.004176574214163382</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Element</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Tau</t>
   </si>
   <si>
     <t>Cellulase loading [wt. % cellulose]</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,22 +635,25 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>0.03713998978499744</v>
+        <v>-0.02193766465350658</v>
       </c>
       <c r="E4">
-        <v>0.04150776137694034</v>
+        <v>0.001017420424696817</v>
+      </c>
+      <c r="F4">
+        <v>0.006211965968619584</v>
       </c>
       <c r="G4">
-        <v>-0.0008126702031675507</v>
+        <v>0.009783953544503156</v>
       </c>
       <c r="H4">
-        <v>-0.008132831033207758</v>
+        <v>0.02181278535251141</v>
       </c>
       <c r="I4">
-        <v>-0.01210015202503801</v>
+        <v>0.01973275000531</v>
       </c>
       <c r="J4">
-        <v>0.008165705825109993</v>
+        <v>0.00466645766504202</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -656,22 +662,25 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>-0.01258272764568191</v>
+        <v>0.006211406840456273</v>
       </c>
       <c r="E5">
-        <v>0.002835743208935802</v>
+        <v>-0.02431366369254654</v>
+      </c>
+      <c r="F5">
+        <v>0.007238960836998299</v>
       </c>
       <c r="G5">
-        <v>0.002184705546176387</v>
+        <v>-0.01278226504550095</v>
       </c>
       <c r="H5">
-        <v>-0.004291168072792019</v>
+        <v>0.02045212651408506</v>
       </c>
       <c r="I5">
-        <v>-0.001145158786289697</v>
+        <v>0.0217038475241539</v>
       </c>
       <c r="J5">
-        <v>0.003142235298520546</v>
+        <v>0.006076906475389467</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,22 +689,25 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>0.1454747103686776</v>
+        <v>0.1401015835560633</v>
       </c>
       <c r="E6">
-        <v>-0.01789828647457162</v>
+        <v>0.0004473963058958521</v>
+      </c>
+      <c r="F6">
+        <v>-0.1912947804164722</v>
       </c>
       <c r="G6">
-        <v>0.2317643244410811</v>
+        <v>0.2015238379861623</v>
       </c>
       <c r="H6">
-        <v>0.9805012611253151</v>
+        <v>0.9768495343699812</v>
       </c>
       <c r="I6">
-        <v>0.9745527441381859</v>
+        <v>0.9749380372055213</v>
       </c>
       <c r="J6">
-        <v>-0.6767118984694112</v>
+        <v>-0.4372337371114852</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -706,22 +718,25 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>0.9584942531235632</v>
+        <v>0.948711658012466</v>
       </c>
       <c r="E7">
-        <v>-0.01232529158132289</v>
+        <v>-0.01683791222551649</v>
+      </c>
+      <c r="F7">
+        <v>0.03453220809081577</v>
       </c>
       <c r="G7">
-        <v>-0.005249956312489078</v>
+        <v>-0.02121565370926718</v>
       </c>
       <c r="H7">
-        <v>0.01477298469324617</v>
+        <v>0.0002513297380531895</v>
       </c>
       <c r="I7">
-        <v>0.01102662875665719</v>
+        <v>0.0009388744695549788</v>
       </c>
       <c r="J7">
-        <v>-0.02369630327182307</v>
+        <v>0.01348450668582707</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -732,22 +747,25 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>-0.006501277625319406</v>
+        <v>0.02161780684871227</v>
       </c>
       <c r="E8">
-        <v>0.01713950828487707</v>
+        <v>0.002947924533916981</v>
+      </c>
+      <c r="F8">
+        <v>-0.001799247507815692</v>
       </c>
       <c r="G8">
-        <v>0.002582688645672162</v>
+        <v>0.01142719126489974</v>
       </c>
       <c r="H8">
-        <v>0.001002012250503063</v>
+        <v>0.01351200553248022</v>
       </c>
       <c r="I8">
-        <v>-0.003187967296991824</v>
+        <v>0.01705725879429035</v>
       </c>
       <c r="J8">
-        <v>0.009058065051880781</v>
+        <v>0.002831608917137997</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -758,22 +776,25 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>-0.02541644285411071</v>
+        <v>-0.003748653461946138</v>
       </c>
       <c r="E9">
-        <v>0.01817710504427626</v>
+        <v>0.0002720265708810628</v>
+      </c>
+      <c r="F9">
+        <v>-0.002342008749204079</v>
       </c>
       <c r="G9">
-        <v>-0.00416007404001851</v>
+        <v>-0.0123045102424681</v>
       </c>
       <c r="H9">
-        <v>-0.001456563364140841</v>
+        <v>-0.0172280100651204</v>
       </c>
       <c r="I9">
-        <v>0.001443475860868965</v>
+        <v>-0.01634195143767805</v>
       </c>
       <c r="J9">
-        <v>0.002062310774084725</v>
+        <v>-0.01162517198491011</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -784,22 +805,25 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>0.0147216831804208</v>
+        <v>0.009393118935724757</v>
       </c>
       <c r="E10">
-        <v>0.04633634208408553</v>
+        <v>-0.01870130042805201</v>
+      </c>
+      <c r="F10">
+        <v>0.01489767081108376</v>
       </c>
       <c r="G10">
-        <v>0.03211806502951626</v>
+        <v>-0.009357492718527732</v>
       </c>
       <c r="H10">
-        <v>0.0581163220290805</v>
+        <v>0.01282621692904868</v>
       </c>
       <c r="I10">
-        <v>0.05814675703668926</v>
+        <v>0.01517028415881136</v>
       </c>
       <c r="J10">
-        <v>-0.01489423278499691</v>
+        <v>0.008274401430295437</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -808,22 +832,25 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>0.06988883347220835</v>
+        <v>0.1147579658703186</v>
       </c>
       <c r="E11">
-        <v>-0.008591202647800661</v>
+        <v>0.02049043195561728</v>
+      </c>
+      <c r="F11">
+        <v>-0.02250347438714071</v>
       </c>
       <c r="G11">
-        <v>-0.029974487993622</v>
+        <v>0.0192116512004865</v>
       </c>
       <c r="H11">
-        <v>-0.02408625752156438</v>
+        <v>0.004172048038881921</v>
       </c>
       <c r="I11">
-        <v>0.2002529930632483</v>
+        <v>0.2239009458520378</v>
       </c>
       <c r="J11">
-        <v>0.06850166640798598</v>
+        <v>-0.005465510914097255</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -832,22 +859,25 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>-0.1780641565160391</v>
+        <v>-0.1865834734793389</v>
       </c>
       <c r="E12">
-        <v>0.01353803138450784</v>
+        <v>0.01274416966176679</v>
+      </c>
+      <c r="F12">
+        <v>-0.0143719358610077</v>
       </c>
       <c r="G12">
-        <v>0.006309673577418394</v>
+        <v>0.02474078181510278</v>
       </c>
       <c r="H12">
-        <v>-0.01348126387031597</v>
+        <v>0.01404875921795037</v>
       </c>
       <c r="I12">
-        <v>-0.01069399617349904</v>
+        <v>0.01745732441029297</v>
       </c>
       <c r="J12">
-        <v>-0.0003452430877348997</v>
+        <v>-0.01668215661010745</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -858,22 +888,25 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>0.01801459050364762</v>
+        <v>0.01968999121959965</v>
       </c>
       <c r="E13">
-        <v>0.0163263415815854</v>
+        <v>-0.01856532957461318</v>
+      </c>
+      <c r="F13">
+        <v>0.006967592948925078</v>
       </c>
       <c r="G13">
-        <v>0.01457249914312479</v>
+        <v>-0.008327208711307196</v>
       </c>
       <c r="H13">
-        <v>-0.002562734140683535</v>
+        <v>-0.002918538356741534</v>
       </c>
       <c r="I13">
-        <v>-0.002792030198007549</v>
+        <v>-0.00490474877218995</v>
       </c>
       <c r="J13">
-        <v>0.03334688797427791</v>
+        <v>0.007962423785389547</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -884,148 +917,168 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.006072424518106129</v>
+        <v>0.002034598065383922</v>
       </c>
       <c r="E14">
-        <v>0.04708904827226207</v>
+        <v>-0.007009091224363647</v>
+      </c>
+      <c r="F14">
+        <v>-0.005898429735794116</v>
       </c>
       <c r="G14">
-        <v>0.04923560430890108</v>
+        <v>0.002764870916883814</v>
       </c>
       <c r="H14">
-        <v>0.02056445314111328</v>
+        <v>-0.002824010128960404</v>
       </c>
       <c r="I14">
-        <v>0.009062567265641816</v>
+        <v>-0.008074700962988037</v>
       </c>
       <c r="J14">
-        <v>-0.0381170781865025</v>
+        <v>-0.005044189744668041</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>-0.02192450324498013</v>
+      </c>
+      <c r="E15">
+        <v>0.004668190650727625</v>
+      </c>
+      <c r="F15">
+        <v>-0.009334454726312781</v>
+      </c>
+      <c r="G15">
+        <v>0.01173611011063471</v>
+      </c>
+      <c r="H15">
+        <v>0.02344088157763526</v>
+      </c>
+      <c r="I15">
+        <v>-0.00791711676468467</v>
+      </c>
+      <c r="J15">
+        <v>0.008467293086274981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>-0.0551099387774847</v>
-      </c>
-      <c r="E15">
-        <v>0.02457318314329579</v>
-      </c>
-      <c r="G15">
-        <v>0.02484424671106168</v>
-      </c>
-      <c r="H15">
-        <v>0.02515579378894844</v>
-      </c>
-      <c r="I15">
-        <v>0.03009894902473725</v>
-      </c>
-      <c r="J15">
-        <v>-0.03960700531513023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>0.003877659969414992</v>
+        <v>-0.06077759772710389</v>
       </c>
       <c r="E16">
-        <v>-0.01895791673947918</v>
+        <v>0.009401046424041855</v>
+      </c>
+      <c r="F16">
+        <v>-0.007349287373388445</v>
       </c>
       <c r="G16">
-        <v>-0.01988766797191699</v>
+        <v>0.009106629598199068</v>
       </c>
       <c r="H16">
-        <v>-0.02142118885529721</v>
+        <v>0.005188967343558693</v>
       </c>
       <c r="I16">
-        <v>-0.01877292169323042</v>
+        <v>0.007431940713277627</v>
       </c>
       <c r="J16">
-        <v>0.002656099424981266</v>
+        <v>-0.001471202556860707</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C17">
-        <v>-0.04070044167511042</v>
+        <v>0.002237396153495846</v>
       </c>
       <c r="E17">
-        <v>0.01208557652139413</v>
+        <v>-0.002742909901716396</v>
+      </c>
+      <c r="F17">
+        <v>0.005126535076877617</v>
       </c>
       <c r="G17">
-        <v>0.02483885270971318</v>
+        <v>0.01060880876036594</v>
       </c>
       <c r="H17">
-        <v>0.2001449825362456</v>
+        <v>0.008488989939559596</v>
       </c>
       <c r="I17">
-        <v>0.00336371484092871</v>
+        <v>0.006111149044445961</v>
       </c>
       <c r="J17">
-        <v>-0.007519228160823856</v>
+        <v>-0.002436143332778377</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.02823953655988414</v>
+        <v>-0.03456116317444652</v>
       </c>
       <c r="E18">
-        <v>0.3441742970435742</v>
+        <v>-0.008681093339243733</v>
+      </c>
+      <c r="F18">
+        <v>0.004330962982716223</v>
       </c>
       <c r="G18">
-        <v>0.4268173232043307</v>
+        <v>0.007679919234553979</v>
       </c>
       <c r="H18">
-        <v>0.02354174688543672</v>
+        <v>0.197423600952944</v>
       </c>
       <c r="I18">
-        <v>0.01021040955260239</v>
+        <v>-0.0001069800042792002</v>
       </c>
       <c r="J18">
-        <v>-0.02417778389417933</v>
+        <v>0.00286134837436826</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C19">
-        <v>0.04448372462093116</v>
+        <v>0.02230926790037071</v>
       </c>
       <c r="E19">
-        <v>0.1738371929592982</v>
+        <v>0.2772064025762561</v>
+      </c>
+      <c r="F19">
+        <v>-0.2582485821188133</v>
       </c>
       <c r="G19">
-        <v>0.1777216014304004</v>
+        <v>0.3427739653521272</v>
       </c>
       <c r="H19">
-        <v>0.001943589485897371</v>
+        <v>0.006872343154893726</v>
       </c>
       <c r="I19">
-        <v>-0.006414003103500775</v>
+        <v>0.002195564631822585</v>
       </c>
       <c r="J19">
-        <v>-0.1530197338861399</v>
+        <v>0.01640840323878283</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1034,22 +1087,25 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.03007948051987012</v>
+        <v>-0.0003913439196537567</v>
       </c>
       <c r="E20">
-        <v>0.4377125549281388</v>
+        <v>0.1495345600613824</v>
+      </c>
+      <c r="F20">
+        <v>-0.1685975315718192</v>
       </c>
       <c r="G20">
-        <v>0.4009093182273296</v>
+        <v>0.107857470911452</v>
       </c>
       <c r="H20">
-        <v>-0.02220691155172789</v>
+        <v>-0.03985837465033498</v>
       </c>
       <c r="I20">
-        <v>-0.03152527688131922</v>
+        <v>-0.002348462397938495</v>
       </c>
       <c r="J20">
-        <v>0.01438747715621763</v>
+        <v>-0.3871112189580169</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1058,304 +1114,367 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>-0.01160071340017835</v>
+        <v>0.002556849318273972</v>
       </c>
       <c r="E21">
-        <v>0.02856020514005128</v>
+        <v>0.3267346573573862</v>
+      </c>
+      <c r="F21">
+        <v>-0.2077951416500022</v>
       </c>
       <c r="G21">
-        <v>0.04087899271974817</v>
+        <v>0.2968279950934348</v>
       </c>
       <c r="H21">
-        <v>-0.02180153645038411</v>
+        <v>0.003881406875256274</v>
       </c>
       <c r="I21">
-        <v>-0.0364499056124764</v>
+        <v>0.003811498328459933</v>
       </c>
       <c r="J21">
-        <v>-0.2334937110865893</v>
+        <v>0.007247580827817923</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C22">
-        <v>0.04116242529060632</v>
+        <v>-0.02211183822847353</v>
       </c>
       <c r="E22">
-        <v>0.6527684966921241</v>
+        <v>0.004718630876745234</v>
+      </c>
+      <c r="F22">
+        <v>-0.02258434465988398</v>
       </c>
       <c r="G22">
-        <v>0.2521854615463654</v>
+        <v>-0.004643570830557307</v>
       </c>
       <c r="H22">
-        <v>-0.01950601987650497</v>
+        <v>-0.01402084731283389</v>
       </c>
       <c r="I22">
-        <v>0.003379823344955836</v>
+        <v>-0.01083848654553946</v>
       </c>
       <c r="J22">
-        <v>0.09470794506765655</v>
+        <v>-0.1898120555801451</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C23">
-        <v>-0.0009974717493679373</v>
+        <v>0.05175600379824014</v>
       </c>
       <c r="E23">
-        <v>0.4129248147312036</v>
+        <v>0.5407430554857221</v>
+      </c>
+      <c r="F23">
+        <v>-0.2053629523050511</v>
       </c>
       <c r="G23">
-        <v>0.4569645992411497</v>
+        <v>0.1106071423925042</v>
       </c>
       <c r="H23">
-        <v>-0.0088091752022938</v>
+        <v>-0.04263842215353688</v>
       </c>
       <c r="I23">
-        <v>-0.02689557072389268</v>
+        <v>-0.01244677700987108</v>
       </c>
       <c r="J23">
-        <v>0.05603816924069975</v>
+        <v>-0.3172307615232022</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C24">
-        <v>-0.003582540895635224</v>
+        <v>0.04538732639149305</v>
       </c>
       <c r="E24">
-        <v>0.003288464322116081</v>
+        <v>0.6668644838265793</v>
+      </c>
+      <c r="F24">
+        <v>-0.6860852241369769</v>
       </c>
       <c r="G24">
-        <v>-0.007541836885459221</v>
+        <v>0.6835938052311431</v>
       </c>
       <c r="H24">
-        <v>-0.03508047127011782</v>
+        <v>-0.02224837106593484</v>
       </c>
       <c r="I24">
-        <v>-0.02417199454299863</v>
+        <v>0.0122876524915061</v>
       </c>
       <c r="J24">
-        <v>0.03948718603468115</v>
+        <v>-0.5428047813507482</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C25">
-        <v>-0.01664805866201467</v>
+        <v>0.002507699620307985</v>
       </c>
       <c r="E25">
-        <v>0.02263833565958391</v>
+        <v>-0.01565380229015209</v>
+      </c>
+      <c r="F25">
+        <v>0.01530085873810855</v>
       </c>
       <c r="G25">
-        <v>0.007778347944586986</v>
+        <v>-0.002882567606664128</v>
       </c>
       <c r="H25">
-        <v>-0.003548813387203346</v>
+        <v>0.01852433642097345</v>
       </c>
       <c r="I25">
-        <v>-0.009120605280151319</v>
+        <v>0.01928701613148064</v>
       </c>
       <c r="J25">
-        <v>0.01827735389473256</v>
+        <v>0.0191973166821546</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C26">
-        <v>-0.02018601504650376</v>
+        <v>0.02507277815491112</v>
       </c>
       <c r="E26">
-        <v>-0.006266194566548641</v>
+        <v>0.029604575168183</v>
+      </c>
+      <c r="F26">
+        <v>-0.03374984700787039</v>
       </c>
       <c r="G26">
-        <v>-0.001244196311049078</v>
+        <v>0.03296026663291875</v>
       </c>
       <c r="H26">
-        <v>-0.0055860223965056</v>
+        <v>0.01454760778190431</v>
       </c>
       <c r="I26">
-        <v>0.0003313155828288957</v>
+        <v>0.0122017175120687</v>
       </c>
       <c r="J26">
-        <v>-0.01117384858955427</v>
+        <v>-0.03557582158370058</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C27">
-        <v>-0.003445583361395841</v>
+        <v>0.02198764407950576</v>
       </c>
       <c r="E27">
-        <v>-0.01880784470196117</v>
+        <v>-0.02367940952317638</v>
+      </c>
+      <c r="F27">
+        <v>0.03240984512259958</v>
       </c>
       <c r="G27">
-        <v>-0.002768685692171423</v>
+        <v>-0.03092203929720083</v>
       </c>
       <c r="H27">
-        <v>-0.01582729445682361</v>
+        <v>-0.02143003304920132</v>
       </c>
       <c r="I27">
-        <v>-0.02435210708802677</v>
+        <v>-0.02272702074908083</v>
       </c>
       <c r="J27">
-        <v>-0.006906673005158278</v>
+        <v>0.02565655042136018</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C28">
-        <v>0.06324396981099245</v>
+        <v>-0.01506210473048419</v>
       </c>
       <c r="E28">
-        <v>0.02077249869312467</v>
+        <v>-0.003749063861962554</v>
+      </c>
+      <c r="F28">
+        <v>0.0006151137574851775</v>
       </c>
       <c r="G28">
-        <v>0.02627899706974926</v>
+        <v>0.01351745773607675</v>
       </c>
       <c r="H28">
-        <v>-0.008747144186786047</v>
+        <v>0.01449156153966246</v>
       </c>
       <c r="I28">
-        <v>-0.005935952983988245</v>
+        <v>0.009357163574286542</v>
       </c>
       <c r="J28">
-        <v>0.00587319374252536</v>
+        <v>0.006350251894697219</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C29">
-        <v>-0.01077000869250217</v>
+        <v>0.01254715518988621</v>
       </c>
       <c r="E29">
-        <v>-0.002252148563037141</v>
+        <v>0.003853490170139607</v>
+      </c>
+      <c r="F29">
+        <v>0.004811743397144856</v>
       </c>
       <c r="G29">
-        <v>-0.01101614975403744</v>
+        <v>-0.002789452166326944</v>
       </c>
       <c r="H29">
-        <v>-0.00257074264268566</v>
+        <v>-0.008513419732536789</v>
       </c>
       <c r="I29">
-        <v>0.002337033584258396</v>
+        <v>-0.007644891473795657</v>
       </c>
       <c r="J29">
-        <v>0.006157688314822543</v>
+        <v>-0.01276141319991414</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C30">
-        <v>-0.036116208029052</v>
+        <v>0.003408571624342865</v>
       </c>
       <c r="E30">
-        <v>-0.01599717099929275</v>
+        <v>0.0009302384052095361</v>
+      </c>
+      <c r="F30">
+        <v>-0.006567525823978684</v>
       </c>
       <c r="G30">
-        <v>-0.02771130392782598</v>
+        <v>0.003474471262262737</v>
       </c>
       <c r="H30">
-        <v>-0.02830682207670552</v>
+        <v>0.003192073279682931</v>
       </c>
       <c r="I30">
-        <v>-0.02634610408652602</v>
+        <v>0.002834183729367349</v>
       </c>
       <c r="J30">
-        <v>0.03620298470008348</v>
+        <v>0.005719146524589653</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C31">
-        <v>0.001467442866860717</v>
+        <v>-0.003962702174508086</v>
       </c>
       <c r="E31">
-        <v>0.05369501542375385</v>
+        <v>0.009836260329450413</v>
+      </c>
+      <c r="F31">
+        <v>-0.008271565289475554</v>
       </c>
       <c r="G31">
-        <v>0.03076249669062417</v>
+        <v>0.01094569475244037</v>
       </c>
       <c r="H31">
-        <v>0.005901842975460743</v>
+        <v>0.01578961579958463</v>
       </c>
       <c r="I31">
-        <v>0.007047027261756816</v>
+        <v>0.01635504967820198</v>
       </c>
       <c r="J31">
-        <v>0.02236990018475088</v>
+        <v>-0.02842814287201541</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C32">
-        <v>-0.03126879631719908</v>
+        <v>0.009425560505022419</v>
       </c>
       <c r="E32">
-        <v>0.00319058179764545</v>
+        <v>-0.0006057006002280239</v>
+      </c>
+      <c r="F32">
+        <v>-0.001782034366600547</v>
       </c>
       <c r="G32">
-        <v>0.03058153664538416</v>
+        <v>0.004569425749764106</v>
       </c>
       <c r="H32">
-        <v>0.009237762809440702</v>
+        <v>0.002242607033704281</v>
       </c>
       <c r="I32">
-        <v>0.009839577959894491</v>
+        <v>0.0032590325143613</v>
       </c>
       <c r="J32">
-        <v>0.0138774567766087</v>
+        <v>0.003633753222321103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>0.004956334950253397</v>
+      </c>
+      <c r="E33">
+        <v>-0.00259222925568917</v>
+      </c>
+      <c r="F33">
+        <v>0.001652195691144486</v>
+      </c>
+      <c r="G33">
+        <v>-0.007936204419556071</v>
+      </c>
+      <c r="H33">
+        <v>-0.004717957244718289</v>
+      </c>
+      <c r="I33">
+        <v>-0.005349035637961424</v>
+      </c>
+      <c r="J33">
+        <v>0.015414112237651</v>
       </c>
     </row>
   </sheetData>
@@ -1363,10 +1482,10 @@
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
